--- a/Spain Segunda Division RFEF Group 2/Spain Segunda Division RFEF Group 2.xlsx
+++ b/Spain Segunda Division RFEF Group 2/Spain Segunda Division RFEF Group 2.xlsx
@@ -109,19 +109,19 @@
     <t>Brea</t>
   </si>
   <si>
-    <t>AD San Juan</t>
+    <t>Racing Rioja CF</t>
   </si>
   <si>
-    <t>Racing Rioja CF</t>
+    <t>AD San Juan</t>
   </si>
   <si>
     <t>Cirbonero</t>
   </si>
   <si>
-    <t>Arnedo</t>
+    <t>Mutilvera</t>
   </si>
   <si>
-    <t>Mutilvera</t>
+    <t>Arnedo</t>
   </si>
   <si>
     <t>Sestao River</t>
@@ -151,10 +151,10 @@
     <t>Gernika</t>
   </si>
   <si>
-    <t>Tudelano</t>
+    <t>SD Tarazona</t>
   </si>
   <si>
-    <t>SD Tarazona</t>
+    <t>Tudelano</t>
   </si>
   <si>
     <t>UD Logrones</t>
@@ -824,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5474751</v>
+        <v>5475221</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -839,73 +839,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K4">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
       <c r="M4">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N4">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P4">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S4">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -913,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5475221</v>
+        <v>5474751</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -928,73 +928,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K5">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L5">
         <v>3</v>
       </c>
       <c r="M5">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N5">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="O5">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P5">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S5">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W5">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z5">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1091,7 +1091,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5474753</v>
+        <v>5475220</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1106,73 +1106,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K7">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="L7">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M7">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="N7">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="O7">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="P7">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="Q7">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S7">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T7">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U7">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X7">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1180,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5475220</v>
+        <v>5474753</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1195,73 +1195,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K8">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="L8">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M8">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="N8">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="O8">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="P8">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S8">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1284,7 +1284,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1462,7 +1462,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1640,7 +1640,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1729,7 +1729,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1996,7 +1996,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2070,7 +2070,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5466417</v>
+        <v>5474760</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2085,70 +2085,70 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K18">
-        <v>1.55</v>
+        <v>1.909</v>
       </c>
       <c r="L18">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="N18">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P18">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2159,7 +2159,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5474760</v>
+        <v>5466417</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2174,70 +2174,70 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>1.909</v>
+        <v>1.55</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="N19">
+        <v>1.727</v>
+      </c>
+      <c r="O19">
+        <v>3.5</v>
+      </c>
+      <c r="P19">
+        <v>3.8</v>
+      </c>
+      <c r="Q19">
+        <v>-0.75</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
         <v>1.8</v>
       </c>
-      <c r="O19">
-        <v>3.2</v>
-      </c>
-      <c r="P19">
-        <v>4.2</v>
-      </c>
-      <c r="Q19">
-        <v>-0.5</v>
-      </c>
-      <c r="R19">
-        <v>1.875</v>
-      </c>
-      <c r="S19">
-        <v>1.925</v>
-      </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V19">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
+        <v>2.8</v>
+      </c>
+      <c r="Z19">
+        <v>-1</v>
+      </c>
+      <c r="AA19">
         <v>0.8</v>
       </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
-      <c r="Z19">
-        <v>0.875</v>
-      </c>
-      <c r="AA19">
-        <v>-1</v>
-      </c>
       <c r="AB19">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2260,7 +2260,7 @@
         <v>44947.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
@@ -2352,7 +2352,7 @@
         <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2441,7 +2441,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -2530,7 +2530,7 @@
         <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>44948.54166666666</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s">
         <v>36</v>
@@ -3239,10 +3239,10 @@
         <v>44954.52083333334</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3328,7 +3328,7 @@
         <v>44954.54166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
         <v>39</v>
@@ -3595,7 +3595,7 @@
         <v>44955.54166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
         <v>43</v>
@@ -3684,10 +3684,10 @@
         <v>44955.54166666666</v>
       </c>
       <c r="F36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" t="s">
         <v>45</v>
-      </c>
-      <c r="G36" t="s">
-        <v>46</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3862,7 +3862,7 @@
         <v>44961.52083333334</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
         <v>29</v>
@@ -3951,7 +3951,7 @@
         <v>44961.54166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
         <v>33</v>
@@ -4028,7 +4028,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5474769</v>
+        <v>5466420</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4040,76 +4040,76 @@
         <v>44962.33333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L40">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M40">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N40">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O40">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P40">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q40">
         <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S40">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y40">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA40">
-        <v>0.7749999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4117,7 +4117,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5466420</v>
+        <v>5474769</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4129,76 +4129,76 @@
         <v>44962.33333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K41">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L41">
+        <v>3.25</v>
+      </c>
+      <c r="M41">
+        <v>2.8</v>
+      </c>
+      <c r="N41">
+        <v>2.3</v>
+      </c>
+      <c r="O41">
         <v>3</v>
       </c>
-      <c r="M41">
-        <v>3.75</v>
-      </c>
-      <c r="N41">
-        <v>2.15</v>
-      </c>
-      <c r="O41">
-        <v>2.75</v>
-      </c>
       <c r="P41">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q41">
         <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S41">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U41">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.4625</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4399,7 +4399,7 @@
         <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4488,7 +4488,7 @@
         <v>44</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>4</v>
@@ -4574,7 +4574,7 @@
         <v>44962.54166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G46" t="s">
         <v>42</v>
@@ -4666,7 +4666,7 @@
         <v>29</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4755,7 +4755,7 @@
         <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4841,7 +4841,7 @@
         <v>44968.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
         <v>44</v>
@@ -4933,7 +4933,7 @@
         <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5019,7 +5019,7 @@
         <v>44969.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G51" t="s">
         <v>41</v>
@@ -5197,7 +5197,7 @@
         <v>44969.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
         <v>38</v>
@@ -5464,7 +5464,7 @@
         <v>44975.52083333334</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
         <v>30</v>
@@ -5553,10 +5553,10 @@
         <v>44975.54166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5645,7 +5645,7 @@
         <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -6001,7 +6001,7 @@
         <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6443,10 +6443,10 @@
         <v>44982.54166666666</v>
       </c>
       <c r="F67" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" t="s">
         <v>32</v>
-      </c>
-      <c r="G67" t="s">
-        <v>31</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6621,7 +6621,7 @@
         <v>44983.54166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G69" t="s">
         <v>41</v>
@@ -6710,10 +6710,10 @@
         <v>44983.54166666666</v>
       </c>
       <c r="F70" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70" t="s">
         <v>34</v>
-      </c>
-      <c r="G70" t="s">
-        <v>35</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6799,7 +6799,7 @@
         <v>44983.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G71" t="s">
         <v>43</v>
@@ -7066,10 +7066,10 @@
         <v>44989.52083333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7155,7 +7155,7 @@
         <v>44989.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
         <v>37</v>
@@ -7232,7 +7232,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5451388</v>
+        <v>5475227</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7244,16 +7244,16 @@
         <v>44990.5</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
         <v>57</v>
@@ -7262,58 +7262,58 @@
         <v>3</v>
       </c>
       <c r="L76">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="N76">
         <v>3.1</v>
       </c>
       <c r="O76">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="P76">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q76">
         <v>0.25</v>
       </c>
       <c r="R76">
-        <v>1.675</v>
+        <v>1.85</v>
       </c>
       <c r="S76">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T76">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.3375</v>
+        <v>0.425</v>
       </c>
       <c r="AA76">
         <v>-0.5</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC76">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7321,7 +7321,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5475227</v>
+        <v>5451388</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7333,16 +7333,16 @@
         <v>44990.5</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
         <v>57</v>
@@ -7351,58 +7351,58 @@
         <v>3</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M77">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="N77">
         <v>3.1</v>
       </c>
       <c r="O77">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="P77">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q77">
         <v>0.25</v>
       </c>
       <c r="R77">
-        <v>1.85</v>
+        <v>1.675</v>
       </c>
       <c r="S77">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T77">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U77">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.1</v>
+        <v>1.625</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.425</v>
+        <v>0.3375</v>
       </c>
       <c r="AA77">
         <v>-0.5</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7499,7 +7499,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5474526</v>
+        <v>5474527</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7511,61 +7511,61 @@
         <v>44990.54166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79" t="s">
+        <v>57</v>
+      </c>
+      <c r="K79">
+        <v>2.1</v>
+      </c>
+      <c r="L79">
         <v>3</v>
       </c>
-      <c r="I79">
-        <v>2</v>
-      </c>
-      <c r="J79" t="s">
-        <v>56</v>
-      </c>
-      <c r="K79">
-        <v>1.666</v>
-      </c>
-      <c r="L79">
-        <v>3.25</v>
-      </c>
       <c r="M79">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="N79">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O79">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P79">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q79">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S79">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T79">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y79">
         <v>-1</v>
@@ -7574,13 +7574,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA79">
-        <v>0.3875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB79">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7588,7 +7588,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5474527</v>
+        <v>5474526</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7600,61 +7600,61 @@
         <v>44990.54166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K80">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L80">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M80">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="N80">
+        <v>1.4</v>
+      </c>
+      <c r="O80">
+        <v>3.8</v>
+      </c>
+      <c r="P80">
+        <v>7.5</v>
+      </c>
+      <c r="Q80">
+        <v>-1.25</v>
+      </c>
+      <c r="R80">
+        <v>2.025</v>
+      </c>
+      <c r="S80">
+        <v>1.775</v>
+      </c>
+      <c r="T80">
         <v>2.25</v>
       </c>
-      <c r="O80">
-        <v>2.875</v>
-      </c>
-      <c r="P80">
-        <v>3.1</v>
-      </c>
-      <c r="Q80">
-        <v>-0.25</v>
-      </c>
-      <c r="R80">
-        <v>1.975</v>
-      </c>
-      <c r="S80">
-        <v>1.825</v>
-      </c>
-      <c r="T80">
-        <v>2</v>
-      </c>
       <c r="U80">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V80">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X80">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
@@ -7663,13 +7663,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA80">
-        <v>0.4125</v>
+        <v>0.3875</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC80">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7781,7 +7781,7 @@
         <v>44</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7956,7 +7956,7 @@
         <v>44996.54166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
         <v>33</v>
@@ -8045,7 +8045,7 @@
         <v>44996.58333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G85" t="s">
         <v>38</v>
@@ -8137,7 +8137,7 @@
         <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H86">
         <v>3</v>
@@ -8223,7 +8223,7 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G87" t="s">
         <v>43</v>
@@ -8490,7 +8490,7 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
         <v>30</v>
@@ -8582,7 +8582,7 @@
         <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8757,7 +8757,7 @@
         <v>45003.54166666666</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
         <v>36</v>
@@ -8846,10 +8846,10 @@
         <v>45003.54166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>45003.64583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
         <v>29</v>
@@ -9116,7 +9116,7 @@
         <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>3</v>
@@ -9190,7 +9190,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5474530</v>
+        <v>5474796</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9202,31 +9202,31 @@
         <v>45004.54166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K98">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L98">
         <v>3</v>
       </c>
       <c r="M98">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N98">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O98">
         <v>3.1</v>
@@ -9238,40 +9238,40 @@
         <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S98">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T98">
         <v>2</v>
       </c>
       <c r="U98">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V98">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y98">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA98">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AB98">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9368,7 +9368,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5474796</v>
+        <v>5474530</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9380,31 +9380,31 @@
         <v>45004.54166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K100">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L100">
         <v>3</v>
       </c>
       <c r="M100">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N100">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O100">
         <v>3.1</v>
@@ -9416,40 +9416,40 @@
         <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T100">
         <v>2</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
+        <v>-1</v>
+      </c>
+      <c r="Y100">
         <v>2.1</v>
       </c>
-      <c r="Y100">
-        <v>-1</v>
-      </c>
       <c r="Z100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC100">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9558,10 +9558,10 @@
         <v>45010.54166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9825,7 +9825,7 @@
         <v>45010.67708333334</v>
       </c>
       <c r="F105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G105" t="s">
         <v>38</v>
@@ -9917,7 +9917,7 @@
         <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -10092,10 +10092,10 @@
         <v>45011.5</v>
       </c>
       <c r="F108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -10258,7 +10258,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5475232</v>
+        <v>5474533</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10270,76 +10270,76 @@
         <v>45017.5</v>
       </c>
       <c r="F110" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H110">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I110">
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K110">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="L110">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="M110">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="N110">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="O110">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="P110">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q110">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R110">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S110">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T110">
         <v>2</v>
       </c>
       <c r="U110">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V110">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W110">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB110">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10347,7 +10347,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5474533</v>
+        <v>5474806</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10362,37 +10362,37 @@
         <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K111">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="L111">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M111">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="N111">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="O111">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P111">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R111">
         <v>1.925</v>
@@ -10404,25 +10404,25 @@
         <v>2</v>
       </c>
       <c r="U111">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V111">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X111">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA111">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
         <v>0</v>
@@ -10436,7 +10436,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5474806</v>
+        <v>5474807</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10448,70 +10448,70 @@
         <v>45017.5</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K112">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L112">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M112">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N112">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="O112">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P112">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q112">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R112">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S112">
+        <v>1.95</v>
+      </c>
+      <c r="T112">
+        <v>2</v>
+      </c>
+      <c r="U112">
+        <v>1.95</v>
+      </c>
+      <c r="V112">
+        <v>1.85</v>
+      </c>
+      <c r="W112">
+        <v>-1</v>
+      </c>
+      <c r="X112">
         <v>1.875</v>
       </c>
-      <c r="T112">
-        <v>2</v>
-      </c>
-      <c r="U112">
-        <v>2</v>
-      </c>
-      <c r="V112">
-        <v>1.8</v>
-      </c>
-      <c r="W112">
-        <v>2.2</v>
-      </c>
-      <c r="X112">
-        <v>-1</v>
-      </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB112">
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5474807</v>
+        <v>5475232</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10537,76 +10537,76 @@
         <v>45017.5</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I113">
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K113">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="L113">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="M113">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="N113">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="O113">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R113">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S113">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T113">
         <v>2</v>
       </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V113">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X113">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC113">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10807,7 +10807,7 @@
         <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10982,7 +10982,7 @@
         <v>45018.52083333334</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
         <v>37</v>
@@ -11163,7 +11163,7 @@
         <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11338,7 +11338,7 @@
         <v>45024.5</v>
       </c>
       <c r="F122" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G122" t="s">
         <v>30</v>
@@ -11430,7 +11430,7 @@
         <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H123">
         <v>3</v>
@@ -11608,7 +11608,7 @@
         <v>40</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -11783,10 +11783,10 @@
         <v>45025.54166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H127">
         <v>3</v>
@@ -11872,7 +11872,7 @@
         <v>45031.5</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
         <v>40</v>
@@ -11961,7 +11961,7 @@
         <v>45031.5</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
         <v>41</v>
@@ -12050,7 +12050,7 @@
         <v>45031.5</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
         <v>36</v>
@@ -12498,7 +12498,7 @@
         <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12584,10 +12584,10 @@
         <v>45032.54166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12851,10 +12851,10 @@
         <v>45039.5</v>
       </c>
       <c r="F139" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>7</v>
@@ -12943,7 +12943,7 @@
         <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13032,7 +13032,7 @@
         <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13121,7 +13121,7 @@
         <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H142">
         <v>3</v>
@@ -13207,7 +13207,7 @@
         <v>45039.54166666666</v>
       </c>
       <c r="F143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G143" t="s">
         <v>30</v>
@@ -13474,7 +13474,7 @@
         <v>45045.5</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G146" t="s">
         <v>42</v>
@@ -13563,7 +13563,7 @@
         <v>45045.5</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
         <v>43</v>
@@ -13652,10 +13652,10 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G148" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13729,7 +13729,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>5476765</v>
+        <v>5476769</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13741,76 +13741,76 @@
         <v>45046.29166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
         <v>57</v>
       </c>
       <c r="K149">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L149">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="M149">
-        <v>3.9</v>
+        <v>2.75</v>
       </c>
       <c r="N149">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="O149">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P149">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q149">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R149">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S149">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T149">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA149">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC149">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13818,7 +13818,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5476769</v>
+        <v>5476765</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13830,76 +13830,76 @@
         <v>45046.29166666666</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
         <v>57</v>
       </c>
       <c r="K150">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L150">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="M150">
-        <v>2.75</v>
+        <v>3.9</v>
       </c>
       <c r="N150">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="O150">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P150">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="Q150">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R150">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S150">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T150">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U150">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V150">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB150">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13922,7 +13922,7 @@
         <v>37</v>
       </c>
       <c r="G151" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -14097,7 +14097,7 @@
         <v>45046.5625</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
         <v>39</v>
@@ -14364,10 +14364,10 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14456,7 +14456,7 @@
         <v>44</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14545,7 +14545,7 @@
         <v>43</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14812,7 +14812,7 @@
         <v>40</v>
       </c>
       <c r="G161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14987,7 +14987,7 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F163" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G163" t="s">
         <v>36</v>
@@ -15165,7 +15165,7 @@
         <v>45060.29166666666</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G165" t="s">
         <v>38</v>
@@ -15257,7 +15257,7 @@
         <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15343,7 +15343,7 @@
         <v>45060.29166666666</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G167" t="s">
         <v>44</v>
@@ -15435,7 +15435,7 @@
         <v>29</v>
       </c>
       <c r="G168" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H168">
         <v>2</v>
@@ -15521,7 +15521,7 @@
         <v>45060.29166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
         <v>40</v>
@@ -15969,7 +15969,7 @@
         <v>49</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H174">
         <v>3</v>
@@ -16147,7 +16147,7 @@
         <v>50</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H176">
         <v>6</v>
@@ -16322,7 +16322,7 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G178" t="s">
         <v>54</v>
@@ -16500,7 +16500,7 @@
         <v>45178.5</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G180" t="s">
         <v>49</v>
@@ -16945,10 +16945,10 @@
         <v>45178.60416666666</v>
       </c>
       <c r="F185" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G185" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -17749,7 +17749,7 @@
         <v>48</v>
       </c>
       <c r="G194" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -17912,7 +17912,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6973206</v>
+        <v>6972693</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17924,58 +17924,58 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F196" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G196" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H196">
         <v>3</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="s">
         <v>56</v>
       </c>
       <c r="K196">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L196">
         <v>2.8</v>
       </c>
       <c r="M196">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N196">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="O196">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P196">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q196">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R196">
+        <v>1.8</v>
+      </c>
+      <c r="S196">
+        <v>2</v>
+      </c>
+      <c r="T196">
+        <v>2</v>
+      </c>
+      <c r="U196">
         <v>1.925</v>
       </c>
-      <c r="S196">
+      <c r="V196">
         <v>1.875</v>
       </c>
-      <c r="T196">
-        <v>2</v>
-      </c>
-      <c r="U196">
-        <v>1.9</v>
-      </c>
-      <c r="V196">
-        <v>1.9</v>
-      </c>
       <c r="W196">
-        <v>0.615</v>
+        <v>1.5</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17984,13 +17984,13 @@
         <v>-1</v>
       </c>
       <c r="Z196">
+        <v>0.8</v>
+      </c>
+      <c r="AA196">
+        <v>-1</v>
+      </c>
+      <c r="AB196">
         <v>0.925</v>
-      </c>
-      <c r="AA196">
-        <v>-1</v>
-      </c>
-      <c r="AB196">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -18001,7 +18001,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6972693</v>
+        <v>6973206</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18013,58 +18013,58 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F197" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G197" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H197">
         <v>3</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="s">
         <v>56</v>
       </c>
       <c r="K197">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L197">
         <v>2.8</v>
       </c>
       <c r="M197">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N197">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="O197">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P197">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q197">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R197">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S197">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T197">
         <v>2</v>
       </c>
       <c r="U197">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V197">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W197">
-        <v>1.5</v>
+        <v>0.615</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18073,13 +18073,13 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA197">
         <v>-1</v>
       </c>
       <c r="AB197">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC197">
         <v>-1</v>
@@ -18090,7 +18090,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6973211</v>
+        <v>6972711</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18102,76 +18102,76 @@
         <v>45192.5625</v>
       </c>
       <c r="F198" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G198" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K198">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L198">
         <v>3</v>
       </c>
       <c r="M198">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N198">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O198">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P198">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q198">
         <v>-0.25</v>
       </c>
       <c r="R198">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S198">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T198">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U198">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="V198">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W198">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB198">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18179,7 +18179,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6972702</v>
+        <v>6973211</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18191,19 +18191,19 @@
         <v>45192.5625</v>
       </c>
       <c r="F199" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G199" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H199">
+        <v>2</v>
+      </c>
+      <c r="I199">
         <v>1</v>
       </c>
-      <c r="I199">
-        <v>2</v>
-      </c>
       <c r="J199" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K199">
         <v>2.4</v>
@@ -18215,49 +18215,49 @@
         <v>2.75</v>
       </c>
       <c r="N199">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O199">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P199">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q199">
         <v>-0.25</v>
       </c>
       <c r="R199">
+        <v>1.775</v>
+      </c>
+      <c r="S199">
         <v>2.025</v>
       </c>
-      <c r="S199">
-        <v>1.775</v>
-      </c>
       <c r="T199">
         <v>2</v>
       </c>
       <c r="U199">
+        <v>1.725</v>
+      </c>
+      <c r="V199">
         <v>1.975</v>
       </c>
-      <c r="V199">
-        <v>1.725</v>
-      </c>
       <c r="W199">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA199">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
-        <v>0.9750000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC199">
         <v>-1</v>
@@ -18268,7 +18268,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6972711</v>
+        <v>6972702</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18280,76 +18280,76 @@
         <v>45192.5625</v>
       </c>
       <c r="F200" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K200">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L200">
         <v>3</v>
       </c>
       <c r="M200">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N200">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O200">
         <v>3</v>
       </c>
       <c r="P200">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q200">
         <v>-0.25</v>
       </c>
       <c r="R200">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S200">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T200">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U200">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V200">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z200">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC200">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18728,7 +18728,7 @@
         <v>37</v>
       </c>
       <c r="G205" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H205">
         <v>4</v>
@@ -19173,7 +19173,7 @@
         <v>44</v>
       </c>
       <c r="G210" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19336,7 +19336,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6972717</v>
+        <v>6962798</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19348,76 +19348,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F212" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G212" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212">
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K212">
+        <v>2</v>
+      </c>
+      <c r="L212">
         <v>3.1</v>
       </c>
-      <c r="L212">
-        <v>3</v>
-      </c>
       <c r="M212">
+        <v>3.4</v>
+      </c>
+      <c r="N212">
         <v>2.2</v>
-      </c>
-      <c r="N212">
-        <v>1.85</v>
       </c>
       <c r="O212">
         <v>2.9</v>
       </c>
       <c r="P212">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q212">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R212">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S212">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T212">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U212">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V212">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z212">
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB212">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19425,7 +19425,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6962798</v>
+        <v>6972717</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19437,76 +19437,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F213" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G213" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213">
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K213">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L213">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M213">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N213">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O213">
         <v>2.9</v>
       </c>
       <c r="P213">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q213">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R213">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S213">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T213">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U213">
+        <v>1.8</v>
+      </c>
+      <c r="V213">
+        <v>2</v>
+      </c>
+      <c r="W213">
+        <v>-1</v>
+      </c>
+      <c r="X213">
         <v>1.9</v>
       </c>
-      <c r="V213">
-        <v>1.9</v>
-      </c>
-      <c r="W213">
-        <v>-1</v>
-      </c>
-      <c r="X213">
-        <v>-1</v>
-      </c>
       <c r="Y213">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC213">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19704,7 +19704,7 @@
         <v>45206.5625</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G216" t="s">
         <v>30</v>
@@ -19974,7 +19974,7 @@
         <v>49</v>
       </c>
       <c r="G219" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -20238,7 +20238,7 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F222" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G222" t="s">
         <v>44</v>
@@ -20330,7 +20330,7 @@
         <v>30</v>
       </c>
       <c r="G223" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H223">
         <v>1</v>
@@ -20953,7 +20953,7 @@
         <v>47</v>
       </c>
       <c r="G230" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H230">
         <v>3</v>
@@ -21042,7 +21042,7 @@
         <v>40</v>
       </c>
       <c r="G231" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H231">
         <v>2</v>
@@ -21217,7 +21217,7 @@
         <v>45220.5</v>
       </c>
       <c r="F233" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G233" t="s">
         <v>53</v>
@@ -21306,7 +21306,7 @@
         <v>45220.5</v>
       </c>
       <c r="F234" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G234" t="s">
         <v>47</v>
@@ -21840,7 +21840,7 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G240" t="s">
         <v>48</v>
@@ -22021,7 +22021,7 @@
         <v>52</v>
       </c>
       <c r="G242" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -22377,7 +22377,7 @@
         <v>53</v>
       </c>
       <c r="G246" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H246">
         <v>3</v>
@@ -22555,7 +22555,7 @@
         <v>37</v>
       </c>
       <c r="G248" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H248">
         <v>1</v>
@@ -22730,7 +22730,7 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F250" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G250" t="s">
         <v>42</v>
@@ -23353,7 +23353,7 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F257" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G257" t="s">
         <v>52</v>
@@ -23442,7 +23442,7 @@
         <v>45235.58333333334</v>
       </c>
       <c r="F258" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G258" t="s">
         <v>44</v>
@@ -23534,7 +23534,7 @@
         <v>51</v>
       </c>
       <c r="G259" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>30</v>
       </c>
       <c r="G261" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H261">
         <v>1</v>
@@ -23979,7 +23979,7 @@
         <v>42</v>
       </c>
       <c r="G264" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H264">
         <v>1</v>
@@ -24332,7 +24332,7 @@
         <v>45248.52083333334</v>
       </c>
       <c r="F268" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G268" t="s">
         <v>38</v>
@@ -24421,7 +24421,7 @@
         <v>45248.54166666666</v>
       </c>
       <c r="F269" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G269" t="s">
         <v>51</v>
@@ -24777,7 +24777,7 @@
         <v>45249.54166666666</v>
       </c>
       <c r="F273" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G273" t="s">
         <v>47</v>
@@ -25299,7 +25299,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6973228</v>
+        <v>6973227</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25311,76 +25311,76 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F279" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="G279" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J279" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K279">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="L279">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M279">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N279">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="O279">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P279">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q279">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R279">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S279">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T279">
         <v>2</v>
       </c>
       <c r="U279">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V279">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W279">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X279">
         <v>-1</v>
       </c>
       <c r="Y279">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z279">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA279">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB279">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC279">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25388,7 +25388,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6973227</v>
+        <v>6973228</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25400,76 +25400,76 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F280" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="G280" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H280">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K280">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="L280">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M280">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="N280">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="O280">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P280">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q280">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R280">
+        <v>1.75</v>
+      </c>
+      <c r="S280">
+        <v>2.05</v>
+      </c>
+      <c r="T280">
+        <v>2</v>
+      </c>
+      <c r="U280">
         <v>2.025</v>
       </c>
-      <c r="S280">
+      <c r="V280">
         <v>1.775</v>
       </c>
-      <c r="T280">
-        <v>2</v>
-      </c>
-      <c r="U280">
-        <v>1.875</v>
-      </c>
-      <c r="V280">
-        <v>1.925</v>
-      </c>
       <c r="W280">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X280">
         <v>-1</v>
       </c>
       <c r="Y280">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z280">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA280">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB280">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC280">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25492,7 +25492,7 @@
         <v>54</v>
       </c>
       <c r="G281" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H281">
         <v>2</v>
@@ -25581,7 +25581,7 @@
         <v>38</v>
       </c>
       <c r="G282" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H282">
         <v>2</v>
@@ -25934,7 +25934,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F286" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G286" t="s">
         <v>40</v>
@@ -26023,7 +26023,7 @@
         <v>45262.54166666666</v>
       </c>
       <c r="F287" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G287" t="s">
         <v>54</v>
@@ -26112,7 +26112,7 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F288" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G288" t="s">
         <v>52</v>
@@ -26723,7 +26723,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6972780</v>
+        <v>6972782</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26735,10 +26735,10 @@
         <v>45269.52083333334</v>
       </c>
       <c r="F295" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G295" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H295">
         <v>1</v>
@@ -26750,43 +26750,43 @@
         <v>56</v>
       </c>
       <c r="K295">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L295">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M295">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N295">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="O295">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P295">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q295">
         <v>0</v>
       </c>
       <c r="R295">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="S295">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="T295">
         <v>2</v>
       </c>
       <c r="U295">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V295">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W295">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="X295">
         <v>-1</v>
@@ -26795,7 +26795,7 @@
         <v>-1</v>
       </c>
       <c r="Z295">
-        <v>0.7250000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA295">
         <v>-1</v>
@@ -26804,7 +26804,7 @@
         <v>-1</v>
       </c>
       <c r="AC295">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26812,7 +26812,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6972782</v>
+        <v>6972780</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26824,10 +26824,10 @@
         <v>45269.52083333334</v>
       </c>
       <c r="F296" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G296" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H296">
         <v>1</v>
@@ -26839,43 +26839,43 @@
         <v>56</v>
       </c>
       <c r="K296">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L296">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M296">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N296">
+        <v>2.45</v>
+      </c>
+      <c r="O296">
+        <v>2.875</v>
+      </c>
+      <c r="P296">
         <v>2.8</v>
       </c>
-      <c r="O296">
-        <v>3.1</v>
-      </c>
-      <c r="P296">
-        <v>2.375</v>
-      </c>
       <c r="Q296">
         <v>0</v>
       </c>
       <c r="R296">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="S296">
-        <v>1.75</v>
+        <v>2.075</v>
       </c>
       <c r="T296">
         <v>2</v>
       </c>
       <c r="U296">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V296">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W296">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="X296">
         <v>-1</v>
@@ -26884,7 +26884,7 @@
         <v>-1</v>
       </c>
       <c r="Z296">
-        <v>1.05</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA296">
         <v>-1</v>
@@ -26893,7 +26893,7 @@
         <v>-1</v>
       </c>
       <c r="AC296">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -27539,7 +27539,7 @@
         <v>43</v>
       </c>
       <c r="G304" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H304">
         <v>0</v>
@@ -27806,7 +27806,7 @@
         <v>40</v>
       </c>
       <c r="G307" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H307">
         <v>3</v>
@@ -28070,7 +28070,7 @@
         <v>45277.54166666666</v>
       </c>
       <c r="F310" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G310" t="s">
         <v>51</v>
@@ -28518,7 +28518,7 @@
         <v>38</v>
       </c>
       <c r="G315" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H315">
         <v>3</v>
@@ -28693,7 +28693,7 @@
         <v>45298.52083333334</v>
       </c>
       <c r="F317" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G317" t="s">
         <v>50</v>
@@ -28871,7 +28871,7 @@
         <v>45298.54166666666</v>
       </c>
       <c r="F319" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G319" t="s">
         <v>43</v>
@@ -29227,7 +29227,7 @@
         <v>45304.52083333334</v>
       </c>
       <c r="F323" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G323" t="s">
         <v>49</v>
@@ -29316,7 +29316,7 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F324" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G324" t="s">
         <v>50</v>
@@ -29393,7 +29393,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>6972798</v>
+        <v>6973236</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29405,76 +29405,76 @@
         <v>45305.33333333334</v>
       </c>
       <c r="F325" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G325" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J325" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K325">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="L325">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="M325">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="N325">
-        <v>2.15</v>
+        <v>1.181</v>
       </c>
       <c r="O325">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="P325">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="Q325">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R325">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S325">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T325">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U325">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V325">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W325">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X325">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y325">
         <v>-1</v>
       </c>
       <c r="Z325">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA325">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB325">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC325">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29482,7 +29482,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>6973236</v>
+        <v>6972799</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29494,13 +29494,13 @@
         <v>45305.33333333334</v>
       </c>
       <c r="F326" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G326" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H326">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I326">
         <v>1</v>
@@ -29509,43 +29509,43 @@
         <v>56</v>
       </c>
       <c r="K326">
-        <v>1.2</v>
+        <v>1.727</v>
       </c>
       <c r="L326">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="M326">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="N326">
-        <v>1.181</v>
+        <v>1.85</v>
       </c>
       <c r="O326">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="P326">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="Q326">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R326">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S326">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T326">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U326">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V326">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W326">
-        <v>0.181</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X326">
         <v>-1</v>
@@ -29554,13 +29554,13 @@
         <v>-1</v>
       </c>
       <c r="Z326">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA326">
         <v>-1</v>
       </c>
       <c r="AB326">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC326">
         <v>-1</v>
@@ -29571,7 +29571,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>6972799</v>
+        <v>6972798</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29583,76 +29583,76 @@
         <v>45305.33333333334</v>
       </c>
       <c r="F327" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G327" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J327" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K327">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L327">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M327">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N327">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O327">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P327">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q327">
+        <v>-0.25</v>
+      </c>
+      <c r="R327">
+        <v>1.925</v>
+      </c>
+      <c r="S327">
+        <v>1.875</v>
+      </c>
+      <c r="T327">
+        <v>2</v>
+      </c>
+      <c r="U327">
+        <v>1.9</v>
+      </c>
+      <c r="V327">
+        <v>1.9</v>
+      </c>
+      <c r="W327">
+        <v>-1</v>
+      </c>
+      <c r="X327">
+        <v>1.9</v>
+      </c>
+      <c r="Y327">
+        <v>-1</v>
+      </c>
+      <c r="Z327">
         <v>-0.5</v>
       </c>
-      <c r="R327">
-        <v>1.9</v>
-      </c>
-      <c r="S327">
-        <v>1.9</v>
-      </c>
-      <c r="T327">
-        <v>1.75</v>
-      </c>
-      <c r="U327">
-        <v>1.925</v>
-      </c>
-      <c r="V327">
-        <v>1.875</v>
-      </c>
-      <c r="W327">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X327">
-        <v>-1</v>
-      </c>
-      <c r="Y327">
-        <v>-1</v>
-      </c>
-      <c r="Z327">
+      <c r="AA327">
+        <v>0.4375</v>
+      </c>
+      <c r="AB327">
+        <v>-1</v>
+      </c>
+      <c r="AC327">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA327">
-        <v>-1</v>
-      </c>
-      <c r="AB327">
-        <v>0.925</v>
-      </c>
-      <c r="AC327">
-        <v>-1</v>
       </c>
     </row>
     <row r="328" spans="1:29">
@@ -29675,7 +29675,7 @@
         <v>54</v>
       </c>
       <c r="G328" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H328">
         <v>0</v>
@@ -30209,7 +30209,7 @@
         <v>49</v>
       </c>
       <c r="G334" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H334">
         <v>1</v>
@@ -30295,10 +30295,10 @@
         <v>45312.54166666666</v>
       </c>
       <c r="F335" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G335" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H335">
         <v>0</v>
@@ -30829,7 +30829,7 @@
         <v>45318.52083333334</v>
       </c>
       <c r="F341" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G341" t="s">
         <v>48</v>
@@ -30906,7 +30906,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>6972816</v>
+        <v>6973239</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -30918,76 +30918,76 @@
         <v>45318.54166666666</v>
       </c>
       <c r="F342" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G342" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I342">
         <v>1</v>
       </c>
       <c r="J342" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K342">
+        <v>3.6</v>
+      </c>
+      <c r="L342">
+        <v>3</v>
+      </c>
+      <c r="M342">
+        <v>2</v>
+      </c>
+      <c r="N342">
+        <v>3.5</v>
+      </c>
+      <c r="O342">
+        <v>3.1</v>
+      </c>
+      <c r="P342">
+        <v>2</v>
+      </c>
+      <c r="Q342">
+        <v>0.5</v>
+      </c>
+      <c r="R342">
+        <v>1.725</v>
+      </c>
+      <c r="S342">
+        <v>1.975</v>
+      </c>
+      <c r="T342">
+        <v>2</v>
+      </c>
+      <c r="U342">
+        <v>1.8</v>
+      </c>
+      <c r="V342">
+        <v>2</v>
+      </c>
+      <c r="W342">
+        <v>-1</v>
+      </c>
+      <c r="X342">
         <v>2.1</v>
       </c>
-      <c r="L342">
-        <v>2.9</v>
-      </c>
-      <c r="M342">
-        <v>3.4</v>
-      </c>
-      <c r="N342">
-        <v>2.375</v>
-      </c>
-      <c r="O342">
-        <v>2.625</v>
-      </c>
-      <c r="P342">
-        <v>3.2</v>
-      </c>
-      <c r="Q342">
-        <v>-0.25</v>
-      </c>
-      <c r="R342">
-        <v>2.025</v>
-      </c>
-      <c r="S342">
-        <v>1.775</v>
-      </c>
-      <c r="T342">
-        <v>1.75</v>
-      </c>
-      <c r="U342">
-        <v>1.975</v>
-      </c>
-      <c r="V342">
-        <v>1.825</v>
-      </c>
-      <c r="W342">
-        <v>-1</v>
-      </c>
-      <c r="X342">
-        <v>-1</v>
-      </c>
       <c r="Y342">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z342">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA342">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB342">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC342">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="343" spans="1:29">
@@ -30995,7 +30995,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>6973239</v>
+        <v>6972816</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -31007,76 +31007,76 @@
         <v>45318.54166666666</v>
       </c>
       <c r="F343" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G343" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343">
         <v>1</v>
       </c>
       <c r="J343" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K343">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L343">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M343">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N343">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O343">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="P343">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="Q343">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R343">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S343">
+        <v>1.775</v>
+      </c>
+      <c r="T343">
+        <v>1.75</v>
+      </c>
+      <c r="U343">
         <v>1.975</v>
       </c>
-      <c r="T343">
-        <v>2</v>
-      </c>
-      <c r="U343">
-        <v>1.8</v>
-      </c>
       <c r="V343">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W343">
         <v>-1</v>
       </c>
       <c r="X343">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y343">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z343">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA343">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB343">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC343">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="344" spans="1:29">
@@ -31986,7 +31986,7 @@
         <v>45326.54166666666</v>
       </c>
       <c r="F354" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G354" t="s">
         <v>43</v>
@@ -32078,7 +32078,7 @@
         <v>48</v>
       </c>
       <c r="G355" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H355">
         <v>0</v>
@@ -32256,7 +32256,7 @@
         <v>37</v>
       </c>
       <c r="G357" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H357">
         <v>1</v>
@@ -32431,7 +32431,7 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F359" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G359" t="s">
         <v>37</v>
@@ -32520,7 +32520,7 @@
         <v>45332.59375</v>
       </c>
       <c r="F360" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G360" t="s">
         <v>44</v>
@@ -33057,7 +33057,7 @@
         <v>50</v>
       </c>
       <c r="G366" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H366">
         <v>3</v>
@@ -33158,10 +33158,10 @@
         <v>6</v>
       </c>
       <c r="N367">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O367">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P367">
         <v>3.8</v>
@@ -33170,19 +33170,19 @@
         <v>-0.5</v>
       </c>
       <c r="R367">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S367">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T367">
         <v>2</v>
       </c>
       <c r="U367">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V367">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W367">
         <v>0</v>
@@ -33294,7 +33294,7 @@
         <v>30</v>
       </c>
       <c r="G369" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K369">
         <v>2.5</v>
@@ -33306,31 +33306,31 @@
         <v>2.8</v>
       </c>
       <c r="N369">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O369">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P369">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q369">
         <v>-0.25</v>
       </c>
       <c r="R369">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="S369">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="T369">
         <v>1.75</v>
       </c>
       <c r="U369">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V369">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W369">
         <v>0</v>
@@ -33501,7 +33501,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>6972833</v>
+        <v>6972835</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33513,46 +33513,46 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F372" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G372" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="K372">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L372">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M372">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="N372">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O372">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P372">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q372">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R372">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S372">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T372">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U372">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V372">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W372">
         <v>0</v>
@@ -33575,7 +33575,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6972835</v>
+        <v>6972833</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33587,46 +33587,46 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F373" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G373" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="K373">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L373">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M373">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="N373">
+        <v>1.8</v>
+      </c>
+      <c r="O373">
+        <v>3.1</v>
+      </c>
+      <c r="P373">
+        <v>4.5</v>
+      </c>
+      <c r="Q373">
+        <v>-0.5</v>
+      </c>
+      <c r="R373">
+        <v>1.85</v>
+      </c>
+      <c r="S373">
         <v>1.95</v>
       </c>
-      <c r="O373">
-        <v>3</v>
-      </c>
-      <c r="P373">
-        <v>3.8</v>
-      </c>
-      <c r="Q373">
-        <v>-0.25</v>
-      </c>
-      <c r="R373">
-        <v>1.7</v>
-      </c>
-      <c r="S373">
-        <v>2.1</v>
-      </c>
       <c r="T373">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U373">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V373">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W373">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>6972829</v>
+        <v>6972831</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33661,46 +33661,46 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F374" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G374" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K374">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="L374">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M374">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N374">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O374">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P374">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q374">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R374">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S374">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T374">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U374">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V374">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W374">
         <v>0</v>
@@ -33723,7 +33723,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>6972831</v>
+        <v>6972829</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33735,31 +33735,31 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F375" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G375" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="K375">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="L375">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M375">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N375">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O375">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P375">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q375">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R375">
         <v>2</v>
@@ -33768,13 +33768,13 @@
         <v>1.8</v>
       </c>
       <c r="T375">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U375">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V375">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W375">
         <v>0</v>

--- a/Spain Segunda Division RFEF Group 2/Spain Segunda Division RFEF Group 2.xlsx
+++ b/Spain Segunda Division RFEF Group 2/Spain Segunda Division RFEF Group 2.xlsx
@@ -109,19 +109,19 @@
     <t>Brea</t>
   </si>
   <si>
-    <t>Racing Rioja CF</t>
+    <t>AD San Juan</t>
   </si>
   <si>
-    <t>AD San Juan</t>
+    <t>Racing Rioja CF</t>
   </si>
   <si>
     <t>Cirbonero</t>
   </si>
   <si>
-    <t>Mutilvera</t>
+    <t>Arnedo</t>
   </si>
   <si>
-    <t>Arnedo</t>
+    <t>Mutilvera</t>
   </si>
   <si>
     <t>Sestao River</t>
@@ -151,10 +151,10 @@
     <t>Gernika</t>
   </si>
   <si>
-    <t>SD Tarazona</t>
+    <t>Tudelano</t>
   </si>
   <si>
-    <t>Tudelano</t>
+    <t>SD Tarazona</t>
   </si>
   <si>
     <t>UD Logrones</t>
@@ -824,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5475221</v>
+        <v>5474751</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -839,73 +839,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K4">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
       <c r="M4">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N4">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="O4">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P4">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S4">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W4">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z4">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -913,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5474751</v>
+        <v>5475221</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -928,73 +928,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L5">
         <v>3</v>
       </c>
       <c r="M5">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N5">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P5">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1091,7 +1091,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5475220</v>
+        <v>5474753</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1106,73 +1106,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K7">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="L7">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M7">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="N7">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="O7">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="P7">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R7">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S7">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U7">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC7">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1180,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5474753</v>
+        <v>5475220</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1195,73 +1195,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K8">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M8">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="N8">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="O8">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="P8">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="Q8">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S8">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T8">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U8">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X8">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1284,7 +1284,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1462,7 +1462,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1640,7 +1640,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1729,7 +1729,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1996,7 +1996,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2070,7 +2070,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5474760</v>
+        <v>5466417</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2085,70 +2085,70 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K18">
-        <v>1.909</v>
+        <v>1.55</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M18">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="N18">
+        <v>1.727</v>
+      </c>
+      <c r="O18">
+        <v>3.5</v>
+      </c>
+      <c r="P18">
+        <v>3.8</v>
+      </c>
+      <c r="Q18">
+        <v>-0.75</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
         <v>1.8</v>
       </c>
-      <c r="O18">
-        <v>3.2</v>
-      </c>
-      <c r="P18">
-        <v>4.2</v>
-      </c>
-      <c r="Q18">
-        <v>-0.5</v>
-      </c>
-      <c r="R18">
-        <v>1.875</v>
-      </c>
-      <c r="S18">
-        <v>1.925</v>
-      </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U18">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W18">
+        <v>-1</v>
+      </c>
+      <c r="X18">
+        <v>-1</v>
+      </c>
+      <c r="Y18">
+        <v>2.8</v>
+      </c>
+      <c r="Z18">
+        <v>-1</v>
+      </c>
+      <c r="AA18">
         <v>0.8</v>
       </c>
-      <c r="X18">
-        <v>-1</v>
-      </c>
-      <c r="Y18">
-        <v>-1</v>
-      </c>
-      <c r="Z18">
-        <v>0.875</v>
-      </c>
-      <c r="AA18">
-        <v>-1</v>
-      </c>
       <c r="AB18">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2159,7 +2159,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5466417</v>
+        <v>5474760</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2174,70 +2174,70 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
       <c r="J19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K19">
-        <v>1.55</v>
+        <v>1.909</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="N19">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O19">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P19">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q19">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA19">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2260,7 +2260,7 @@
         <v>44947.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
@@ -2352,7 +2352,7 @@
         <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2441,7 +2441,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -2530,7 +2530,7 @@
         <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>44948.54166666666</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s">
         <v>36</v>
@@ -3239,10 +3239,10 @@
         <v>44954.52083333334</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3328,7 +3328,7 @@
         <v>44954.54166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
         <v>39</v>
@@ -3595,7 +3595,7 @@
         <v>44955.54166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
         <v>43</v>
@@ -3684,10 +3684,10 @@
         <v>44955.54166666666</v>
       </c>
       <c r="F36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" t="s">
         <v>46</v>
-      </c>
-      <c r="G36" t="s">
-        <v>45</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3862,7 +3862,7 @@
         <v>44961.52083333334</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
         <v>29</v>
@@ -3951,7 +3951,7 @@
         <v>44961.54166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
         <v>33</v>
@@ -4028,7 +4028,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5466420</v>
+        <v>5474769</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4040,76 +4040,76 @@
         <v>44962.33333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K40">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L40">
+        <v>3.25</v>
+      </c>
+      <c r="M40">
+        <v>2.8</v>
+      </c>
+      <c r="N40">
+        <v>2.3</v>
+      </c>
+      <c r="O40">
         <v>3</v>
       </c>
-      <c r="M40">
-        <v>3.75</v>
-      </c>
-      <c r="N40">
-        <v>2.15</v>
-      </c>
-      <c r="O40">
-        <v>2.75</v>
-      </c>
       <c r="P40">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q40">
         <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S40">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V40">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.4625</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4117,7 +4117,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5474769</v>
+        <v>5466420</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4129,76 +4129,76 @@
         <v>44962.33333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K41">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L41">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M41">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N41">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P41">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q41">
         <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S41">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T41">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y41">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA41">
-        <v>0.7749999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4399,7 +4399,7 @@
         <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4488,7 +4488,7 @@
         <v>44</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>4</v>
@@ -4574,7 +4574,7 @@
         <v>44962.54166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G46" t="s">
         <v>42</v>
@@ -4666,7 +4666,7 @@
         <v>29</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4755,7 +4755,7 @@
         <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4841,7 +4841,7 @@
         <v>44968.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
         <v>44</v>
@@ -4933,7 +4933,7 @@
         <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5019,7 +5019,7 @@
         <v>44969.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G51" t="s">
         <v>41</v>
@@ -5197,7 +5197,7 @@
         <v>44969.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
         <v>38</v>
@@ -5464,7 +5464,7 @@
         <v>44975.52083333334</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
         <v>30</v>
@@ -5553,10 +5553,10 @@
         <v>44975.54166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5645,7 +5645,7 @@
         <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -6001,7 +6001,7 @@
         <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6443,10 +6443,10 @@
         <v>44982.54166666666</v>
       </c>
       <c r="F67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" t="s">
         <v>31</v>
-      </c>
-      <c r="G67" t="s">
-        <v>32</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6621,7 +6621,7 @@
         <v>44983.54166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G69" t="s">
         <v>41</v>
@@ -6710,10 +6710,10 @@
         <v>44983.54166666666</v>
       </c>
       <c r="F70" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" t="s">
         <v>35</v>
-      </c>
-      <c r="G70" t="s">
-        <v>34</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6799,7 +6799,7 @@
         <v>44983.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G71" t="s">
         <v>43</v>
@@ -7066,10 +7066,10 @@
         <v>44989.52083333334</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7155,7 +7155,7 @@
         <v>44989.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
         <v>37</v>
@@ -7232,7 +7232,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5475227</v>
+        <v>5451388</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7244,16 +7244,16 @@
         <v>44990.5</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
         <v>57</v>
@@ -7262,58 +7262,58 @@
         <v>3</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M76">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="N76">
         <v>3.1</v>
       </c>
       <c r="O76">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="P76">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q76">
         <v>0.25</v>
       </c>
       <c r="R76">
-        <v>1.85</v>
+        <v>1.675</v>
       </c>
       <c r="S76">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T76">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>2.1</v>
+        <v>1.625</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.425</v>
+        <v>0.3375</v>
       </c>
       <c r="AA76">
         <v>-0.5</v>
       </c>
       <c r="AB76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7321,7 +7321,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5451388</v>
+        <v>5475227</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7333,16 +7333,16 @@
         <v>44990.5</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
         <v>57</v>
@@ -7351,58 +7351,58 @@
         <v>3</v>
       </c>
       <c r="L77">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M77">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="N77">
         <v>3.1</v>
       </c>
       <c r="O77">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="P77">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q77">
         <v>0.25</v>
       </c>
       <c r="R77">
-        <v>1.675</v>
+        <v>1.85</v>
       </c>
       <c r="S77">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T77">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.3375</v>
+        <v>0.425</v>
       </c>
       <c r="AA77">
         <v>-0.5</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7499,7 +7499,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5474527</v>
+        <v>5474526</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7511,61 +7511,61 @@
         <v>44990.54166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K79">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L79">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M79">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="N79">
+        <v>1.4</v>
+      </c>
+      <c r="O79">
+        <v>3.8</v>
+      </c>
+      <c r="P79">
+        <v>7.5</v>
+      </c>
+      <c r="Q79">
+        <v>-1.25</v>
+      </c>
+      <c r="R79">
+        <v>2.025</v>
+      </c>
+      <c r="S79">
+        <v>1.775</v>
+      </c>
+      <c r="T79">
         <v>2.25</v>
       </c>
-      <c r="O79">
-        <v>2.875</v>
-      </c>
-      <c r="P79">
-        <v>3.1</v>
-      </c>
-      <c r="Q79">
-        <v>-0.25</v>
-      </c>
-      <c r="R79">
-        <v>1.975</v>
-      </c>
-      <c r="S79">
-        <v>1.825</v>
-      </c>
-      <c r="T79">
-        <v>2</v>
-      </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X79">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
         <v>-1</v>
@@ -7574,13 +7574,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA79">
-        <v>0.4125</v>
+        <v>0.3875</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC79">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7588,7 +7588,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5474526</v>
+        <v>5474527</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7600,61 +7600,61 @@
         <v>44990.54166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80" t="s">
+        <v>57</v>
+      </c>
+      <c r="K80">
+        <v>2.1</v>
+      </c>
+      <c r="L80">
         <v>3</v>
       </c>
-      <c r="I80">
-        <v>2</v>
-      </c>
-      <c r="J80" t="s">
-        <v>56</v>
-      </c>
-      <c r="K80">
-        <v>1.666</v>
-      </c>
-      <c r="L80">
-        <v>3.25</v>
-      </c>
       <c r="M80">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="N80">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O80">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P80">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q80">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S80">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T80">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U80">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W80">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y80">
         <v>-1</v>
@@ -7663,13 +7663,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA80">
-        <v>0.3875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB80">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7781,7 +7781,7 @@
         <v>44</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7956,7 +7956,7 @@
         <v>44996.54166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
         <v>33</v>
@@ -8045,7 +8045,7 @@
         <v>44996.58333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G85" t="s">
         <v>38</v>
@@ -8137,7 +8137,7 @@
         <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H86">
         <v>3</v>
@@ -8223,7 +8223,7 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G87" t="s">
         <v>43</v>
@@ -8300,7 +8300,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5474790</v>
+        <v>5474791</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8312,49 +8312,49 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K88">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L88">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="M88">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="N88">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="O88">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="P88">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R88">
+        <v>1.75</v>
+      </c>
+      <c r="S88">
         <v>2.05</v>
       </c>
-      <c r="S88">
+      <c r="T88">
         <v>1.75</v>
-      </c>
-      <c r="T88">
-        <v>2.25</v>
       </c>
       <c r="U88">
         <v>1.8</v>
@@ -8366,22 +8366,22 @@
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC88">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8389,7 +8389,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5474791</v>
+        <v>5474790</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8401,49 +8401,49 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K89">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L89">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="N89">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="O89">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="P89">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R89">
+        <v>2.05</v>
+      </c>
+      <c r="S89">
         <v>1.75</v>
       </c>
-      <c r="S89">
-        <v>2.05</v>
-      </c>
       <c r="T89">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
         <v>1.8</v>
@@ -8455,22 +8455,22 @@
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y89">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="AB89">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8490,7 +8490,7 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
         <v>30</v>
@@ -8582,7 +8582,7 @@
         <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8757,7 +8757,7 @@
         <v>45003.54166666666</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
         <v>36</v>
@@ -8846,10 +8846,10 @@
         <v>45003.54166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>45003.64583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
         <v>29</v>
@@ -9116,7 +9116,7 @@
         <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H97">
         <v>3</v>
@@ -9190,7 +9190,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5474796</v>
+        <v>5474530</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9202,31 +9202,31 @@
         <v>45004.54166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K98">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L98">
         <v>3</v>
       </c>
       <c r="M98">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N98">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O98">
         <v>3.1</v>
@@ -9238,40 +9238,40 @@
         <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S98">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T98">
         <v>2</v>
       </c>
       <c r="U98">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
         <v>2.1</v>
       </c>
-      <c r="Y98">
-        <v>-1</v>
-      </c>
       <c r="Z98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB98">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC98">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9368,7 +9368,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5474530</v>
+        <v>5474796</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9380,31 +9380,31 @@
         <v>45004.54166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K100">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L100">
         <v>3</v>
       </c>
       <c r="M100">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N100">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O100">
         <v>3.1</v>
@@ -9416,40 +9416,40 @@
         <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S100">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T100">
         <v>2</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y100">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA100">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AB100">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9558,10 +9558,10 @@
         <v>45010.54166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9825,7 +9825,7 @@
         <v>45010.67708333334</v>
       </c>
       <c r="F105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G105" t="s">
         <v>38</v>
@@ -9917,7 +9917,7 @@
         <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -10092,10 +10092,10 @@
         <v>45011.5</v>
       </c>
       <c r="F108" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -10270,7 +10270,7 @@
         <v>45017.5</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G110" t="s">
         <v>29</v>
@@ -10359,10 +10359,10 @@
         <v>45017.5</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10448,7 +10448,7 @@
         <v>45017.5</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
         <v>42</v>
@@ -10807,7 +10807,7 @@
         <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10982,7 +10982,7 @@
         <v>45018.52083333334</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G118" t="s">
         <v>37</v>
@@ -11163,7 +11163,7 @@
         <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11338,7 +11338,7 @@
         <v>45024.5</v>
       </c>
       <c r="F122" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G122" t="s">
         <v>30</v>
@@ -11430,7 +11430,7 @@
         <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H123">
         <v>3</v>
@@ -11608,7 +11608,7 @@
         <v>40</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -11783,10 +11783,10 @@
         <v>45025.54166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H127">
         <v>3</v>
@@ -11872,7 +11872,7 @@
         <v>45031.5</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
         <v>40</v>
@@ -11961,7 +11961,7 @@
         <v>45031.5</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
         <v>41</v>
@@ -12050,7 +12050,7 @@
         <v>45031.5</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
         <v>36</v>
@@ -12498,7 +12498,7 @@
         <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12584,10 +12584,10 @@
         <v>45032.54166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12851,10 +12851,10 @@
         <v>45039.5</v>
       </c>
       <c r="F139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H139">
         <v>7</v>
@@ -12943,7 +12943,7 @@
         <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13032,7 +13032,7 @@
         <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13121,7 +13121,7 @@
         <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>3</v>
@@ -13207,7 +13207,7 @@
         <v>45039.54166666666</v>
       </c>
       <c r="F143" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G143" t="s">
         <v>30</v>
@@ -13474,7 +13474,7 @@
         <v>45045.5</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G146" t="s">
         <v>42</v>
@@ -13563,7 +13563,7 @@
         <v>45045.5</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
         <v>43</v>
@@ -13652,10 +13652,10 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G148" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13729,7 +13729,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>5476769</v>
+        <v>5476765</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13741,76 +13741,76 @@
         <v>45046.29166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
         <v>57</v>
       </c>
       <c r="K149">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L149">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="M149">
-        <v>2.75</v>
+        <v>3.9</v>
       </c>
       <c r="N149">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="O149">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P149">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R149">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S149">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T149">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U149">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V149">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB149">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13818,7 +13818,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5476765</v>
+        <v>5476769</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13830,76 +13830,76 @@
         <v>45046.29166666666</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
         <v>57</v>
       </c>
       <c r="K150">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L150">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="M150">
-        <v>3.9</v>
+        <v>2.75</v>
       </c>
       <c r="N150">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="O150">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P150">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q150">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R150">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S150">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T150">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U150">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA150">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC150">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13922,7 +13922,7 @@
         <v>37</v>
       </c>
       <c r="G151" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -14097,7 +14097,7 @@
         <v>45046.5625</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G153" t="s">
         <v>39</v>
@@ -14364,10 +14364,10 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F156" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14456,7 +14456,7 @@
         <v>44</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14545,7 +14545,7 @@
         <v>43</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14812,7 +14812,7 @@
         <v>40</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14987,7 +14987,7 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F163" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G163" t="s">
         <v>36</v>
@@ -15165,7 +15165,7 @@
         <v>45060.29166666666</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G165" t="s">
         <v>38</v>
@@ -15257,7 +15257,7 @@
         <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15343,7 +15343,7 @@
         <v>45060.29166666666</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G167" t="s">
         <v>44</v>
@@ -15435,7 +15435,7 @@
         <v>29</v>
       </c>
       <c r="G168" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H168">
         <v>2</v>
@@ -15521,7 +15521,7 @@
         <v>45060.29166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G169" t="s">
         <v>40</v>
@@ -15969,7 +15969,7 @@
         <v>49</v>
       </c>
       <c r="G174" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H174">
         <v>3</v>
@@ -16147,7 +16147,7 @@
         <v>50</v>
       </c>
       <c r="G176" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H176">
         <v>6</v>
@@ -16322,7 +16322,7 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G178" t="s">
         <v>54</v>
@@ -16500,7 +16500,7 @@
         <v>45178.5</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
         <v>49</v>
@@ -16945,10 +16945,10 @@
         <v>45178.60416666666</v>
       </c>
       <c r="F185" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G185" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -17749,7 +17749,7 @@
         <v>48</v>
       </c>
       <c r="G194" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -17912,7 +17912,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6972693</v>
+        <v>6973206</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17924,58 +17924,58 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F196" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G196" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H196">
         <v>3</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
         <v>56</v>
       </c>
       <c r="K196">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L196">
         <v>2.8</v>
       </c>
       <c r="M196">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N196">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="O196">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P196">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q196">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R196">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S196">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T196">
         <v>2</v>
       </c>
       <c r="U196">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V196">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W196">
-        <v>1.5</v>
+        <v>0.615</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17984,13 +17984,13 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA196">
         <v>-1</v>
       </c>
       <c r="AB196">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -18001,7 +18001,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6973206</v>
+        <v>6972693</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18013,58 +18013,58 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F197" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G197" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H197">
         <v>3</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="s">
         <v>56</v>
       </c>
       <c r="K197">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L197">
         <v>2.8</v>
       </c>
       <c r="M197">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N197">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="O197">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P197">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q197">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R197">
+        <v>1.8</v>
+      </c>
+      <c r="S197">
+        <v>2</v>
+      </c>
+      <c r="T197">
+        <v>2</v>
+      </c>
+      <c r="U197">
         <v>1.925</v>
       </c>
-      <c r="S197">
+      <c r="V197">
         <v>1.875</v>
       </c>
-      <c r="T197">
-        <v>2</v>
-      </c>
-      <c r="U197">
-        <v>1.9</v>
-      </c>
-      <c r="V197">
-        <v>1.9</v>
-      </c>
       <c r="W197">
-        <v>0.615</v>
+        <v>1.5</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18073,13 +18073,13 @@
         <v>-1</v>
       </c>
       <c r="Z197">
+        <v>0.8</v>
+      </c>
+      <c r="AA197">
+        <v>-1</v>
+      </c>
+      <c r="AB197">
         <v>0.925</v>
-      </c>
-      <c r="AA197">
-        <v>-1</v>
-      </c>
-      <c r="AB197">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC197">
         <v>-1</v>
@@ -18090,7 +18090,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6972711</v>
+        <v>6973211</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18102,76 +18102,76 @@
         <v>45192.5625</v>
       </c>
       <c r="F198" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G198" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K198">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L198">
         <v>3</v>
       </c>
       <c r="M198">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N198">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O198">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P198">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q198">
         <v>-0.25</v>
       </c>
       <c r="R198">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S198">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T198">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U198">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V198">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X198">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA198">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC198">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18179,7 +18179,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6973211</v>
+        <v>6972702</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18191,19 +18191,19 @@
         <v>45192.5625</v>
       </c>
       <c r="F199" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G199" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K199">
         <v>2.4</v>
@@ -18215,49 +18215,49 @@
         <v>2.75</v>
       </c>
       <c r="N199">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O199">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P199">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q199">
         <v>-0.25</v>
       </c>
       <c r="R199">
+        <v>2.025</v>
+      </c>
+      <c r="S199">
         <v>1.775</v>
       </c>
-      <c r="S199">
-        <v>2.025</v>
-      </c>
       <c r="T199">
         <v>2</v>
       </c>
       <c r="U199">
+        <v>1.975</v>
+      </c>
+      <c r="V199">
         <v>1.725</v>
       </c>
-      <c r="V199">
-        <v>1.975</v>
-      </c>
       <c r="W199">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z199">
+        <v>-1</v>
+      </c>
+      <c r="AA199">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AA199">
-        <v>-1</v>
-      </c>
       <c r="AB199">
-        <v>0.7250000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC199">
         <v>-1</v>
@@ -18268,7 +18268,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6972702</v>
+        <v>6972711</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18280,76 +18280,76 @@
         <v>45192.5625</v>
       </c>
       <c r="F200" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G200" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K200">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L200">
         <v>3</v>
       </c>
       <c r="M200">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N200">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O200">
         <v>3</v>
       </c>
       <c r="P200">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q200">
         <v>-0.25</v>
       </c>
       <c r="R200">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S200">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T200">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U200">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V200">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y200">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA200">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AB200">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18728,7 +18728,7 @@
         <v>37</v>
       </c>
       <c r="G205" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H205">
         <v>4</v>
@@ -19173,7 +19173,7 @@
         <v>44</v>
       </c>
       <c r="G210" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19348,7 +19348,7 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F212" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G212" t="s">
         <v>50</v>
@@ -19704,7 +19704,7 @@
         <v>45206.5625</v>
       </c>
       <c r="F216" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G216" t="s">
         <v>30</v>
@@ -19974,7 +19974,7 @@
         <v>49</v>
       </c>
       <c r="G219" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -20238,7 +20238,7 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F222" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G222" t="s">
         <v>44</v>
@@ -20330,7 +20330,7 @@
         <v>30</v>
       </c>
       <c r="G223" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H223">
         <v>1</v>
@@ -20671,7 +20671,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6972732</v>
+        <v>6972736</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20683,76 +20683,76 @@
         <v>45214.5</v>
       </c>
       <c r="F227" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G227" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227">
         <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K227">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L227">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M227">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="N227">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O227">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P227">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q227">
+        <v>-0.25</v>
+      </c>
+      <c r="R227">
+        <v>1.925</v>
+      </c>
+      <c r="S227">
+        <v>1.875</v>
+      </c>
+      <c r="T227">
+        <v>2</v>
+      </c>
+      <c r="U227">
+        <v>1.975</v>
+      </c>
+      <c r="V227">
+        <v>1.825</v>
+      </c>
+      <c r="W227">
+        <v>-1</v>
+      </c>
+      <c r="X227">
+        <v>1.75</v>
+      </c>
+      <c r="Y227">
+        <v>-1</v>
+      </c>
+      <c r="Z227">
         <v>-0.5</v>
       </c>
-      <c r="R227">
-        <v>1.9</v>
-      </c>
-      <c r="S227">
-        <v>1.9</v>
-      </c>
-      <c r="T227">
-        <v>2</v>
-      </c>
-      <c r="U227">
-        <v>1.875</v>
-      </c>
-      <c r="V227">
-        <v>1.925</v>
-      </c>
-      <c r="W227">
-        <v>-1</v>
-      </c>
-      <c r="X227">
-        <v>-1</v>
-      </c>
-      <c r="Y227">
-        <v>3.333</v>
-      </c>
-      <c r="Z227">
-        <v>-1</v>
-      </c>
       <c r="AA227">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB227">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC227">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20760,7 +20760,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6972736</v>
+        <v>6972732</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20772,76 +20772,76 @@
         <v>45214.5</v>
       </c>
       <c r="F228" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G228" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228">
         <v>2</v>
       </c>
       <c r="J228" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K228">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L228">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M228">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="N228">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O228">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P228">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q228">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R228">
+        <v>1.9</v>
+      </c>
+      <c r="S228">
+        <v>1.9</v>
+      </c>
+      <c r="T228">
+        <v>2</v>
+      </c>
+      <c r="U228">
+        <v>1.875</v>
+      </c>
+      <c r="V228">
         <v>1.925</v>
       </c>
-      <c r="S228">
-        <v>1.875</v>
-      </c>
-      <c r="T228">
-        <v>2</v>
-      </c>
-      <c r="U228">
-        <v>1.975</v>
-      </c>
-      <c r="V228">
-        <v>1.825</v>
-      </c>
       <c r="W228">
         <v>-1</v>
       </c>
       <c r="X228">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z228">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB228">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20953,7 +20953,7 @@
         <v>47</v>
       </c>
       <c r="G230" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H230">
         <v>3</v>
@@ -21042,7 +21042,7 @@
         <v>40</v>
       </c>
       <c r="G231" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H231">
         <v>2</v>
@@ -21217,7 +21217,7 @@
         <v>45220.5</v>
       </c>
       <c r="F233" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G233" t="s">
         <v>53</v>
@@ -21306,7 +21306,7 @@
         <v>45220.5</v>
       </c>
       <c r="F234" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G234" t="s">
         <v>47</v>
@@ -21840,7 +21840,7 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G240" t="s">
         <v>48</v>
@@ -22021,7 +22021,7 @@
         <v>52</v>
       </c>
       <c r="G242" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -22377,7 +22377,7 @@
         <v>53</v>
       </c>
       <c r="G246" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H246">
         <v>3</v>
@@ -22555,7 +22555,7 @@
         <v>37</v>
       </c>
       <c r="G248" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H248">
         <v>1</v>
@@ -22730,7 +22730,7 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F250" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G250" t="s">
         <v>42</v>
@@ -23252,7 +23252,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6962803</v>
+        <v>6972754</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23264,76 +23264,76 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F256" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G256" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I256">
         <v>1</v>
       </c>
       <c r="J256" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K256">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L256">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="M256">
         <v>3</v>
       </c>
       <c r="N256">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O256">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="P256">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q256">
         <v>0</v>
       </c>
       <c r="R256">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="S256">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="T256">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U256">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V256">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W256">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X256">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y256">
         <v>-1</v>
       </c>
       <c r="Z256">
-        <v>0</v>
+        <v>1.075</v>
       </c>
       <c r="AA256">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB256">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC256">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23341,7 +23341,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6972754</v>
+        <v>6962803</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23353,76 +23353,76 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F257" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G257" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H257">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I257">
         <v>1</v>
       </c>
       <c r="J257" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K257">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L257">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="M257">
         <v>3</v>
       </c>
       <c r="N257">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="O257">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P257">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="Q257">
         <v>0</v>
       </c>
       <c r="R257">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="S257">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="T257">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U257">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V257">
+        <v>1.825</v>
+      </c>
+      <c r="W257">
+        <v>-1</v>
+      </c>
+      <c r="X257">
         <v>1.8</v>
       </c>
-      <c r="W257">
-        <v>1.9</v>
-      </c>
-      <c r="X257">
-        <v>-1</v>
-      </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
-        <v>1.075</v>
+        <v>0</v>
       </c>
       <c r="AA257">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB257">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC257">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23442,7 +23442,7 @@
         <v>45235.58333333334</v>
       </c>
       <c r="F258" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G258" t="s">
         <v>44</v>
@@ -23534,7 +23534,7 @@
         <v>51</v>
       </c>
       <c r="G259" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>30</v>
       </c>
       <c r="G261" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H261">
         <v>1</v>
@@ -23979,7 +23979,7 @@
         <v>42</v>
       </c>
       <c r="G264" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H264">
         <v>1</v>
@@ -24332,7 +24332,7 @@
         <v>45248.52083333334</v>
       </c>
       <c r="F268" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G268" t="s">
         <v>38</v>
@@ -24421,7 +24421,7 @@
         <v>45248.54166666666</v>
       </c>
       <c r="F269" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G269" t="s">
         <v>51</v>
@@ -24777,7 +24777,7 @@
         <v>45249.54166666666</v>
       </c>
       <c r="F273" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G273" t="s">
         <v>47</v>
@@ -25314,7 +25314,7 @@
         <v>53</v>
       </c>
       <c r="G279" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H279">
         <v>4</v>
@@ -25492,7 +25492,7 @@
         <v>54</v>
       </c>
       <c r="G281" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H281">
         <v>2</v>
@@ -25581,7 +25581,7 @@
         <v>38</v>
       </c>
       <c r="G282" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H282">
         <v>2</v>
@@ -25934,7 +25934,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F286" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G286" t="s">
         <v>40</v>
@@ -26023,7 +26023,7 @@
         <v>45262.54166666666</v>
       </c>
       <c r="F287" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G287" t="s">
         <v>54</v>
@@ -26112,7 +26112,7 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F288" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G288" t="s">
         <v>52</v>
@@ -26723,7 +26723,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6972782</v>
+        <v>6972780</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26735,10 +26735,10 @@
         <v>45269.52083333334</v>
       </c>
       <c r="F295" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G295" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H295">
         <v>1</v>
@@ -26750,43 +26750,43 @@
         <v>56</v>
       </c>
       <c r="K295">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L295">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M295">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N295">
+        <v>2.45</v>
+      </c>
+      <c r="O295">
+        <v>2.875</v>
+      </c>
+      <c r="P295">
         <v>2.8</v>
       </c>
-      <c r="O295">
-        <v>3.1</v>
-      </c>
-      <c r="P295">
-        <v>2.375</v>
-      </c>
       <c r="Q295">
         <v>0</v>
       </c>
       <c r="R295">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="S295">
-        <v>1.75</v>
+        <v>2.075</v>
       </c>
       <c r="T295">
         <v>2</v>
       </c>
       <c r="U295">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V295">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W295">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="X295">
         <v>-1</v>
@@ -26795,7 +26795,7 @@
         <v>-1</v>
       </c>
       <c r="Z295">
-        <v>1.05</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA295">
         <v>-1</v>
@@ -26804,7 +26804,7 @@
         <v>-1</v>
       </c>
       <c r="AC295">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26812,7 +26812,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6972780</v>
+        <v>6972782</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26824,10 +26824,10 @@
         <v>45269.52083333334</v>
       </c>
       <c r="F296" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G296" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H296">
         <v>1</v>
@@ -26839,43 +26839,43 @@
         <v>56</v>
       </c>
       <c r="K296">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L296">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M296">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N296">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="O296">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P296">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q296">
         <v>0</v>
       </c>
       <c r="R296">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="S296">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="T296">
         <v>2</v>
       </c>
       <c r="U296">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V296">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W296">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="X296">
         <v>-1</v>
@@ -26884,7 +26884,7 @@
         <v>-1</v>
       </c>
       <c r="Z296">
-        <v>0.7250000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA296">
         <v>-1</v>
@@ -26893,7 +26893,7 @@
         <v>-1</v>
       </c>
       <c r="AC296">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -27539,7 +27539,7 @@
         <v>43</v>
       </c>
       <c r="G304" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H304">
         <v>0</v>
@@ -27806,7 +27806,7 @@
         <v>40</v>
       </c>
       <c r="G307" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H307">
         <v>3</v>
@@ -28070,7 +28070,7 @@
         <v>45277.54166666666</v>
       </c>
       <c r="F310" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G310" t="s">
         <v>51</v>
@@ -28518,7 +28518,7 @@
         <v>38</v>
       </c>
       <c r="G315" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H315">
         <v>3</v>
@@ -28693,7 +28693,7 @@
         <v>45298.52083333334</v>
       </c>
       <c r="F317" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G317" t="s">
         <v>50</v>
@@ -28871,7 +28871,7 @@
         <v>45298.54166666666</v>
       </c>
       <c r="F319" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G319" t="s">
         <v>43</v>
@@ -29227,7 +29227,7 @@
         <v>45304.52083333334</v>
       </c>
       <c r="F323" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G323" t="s">
         <v>49</v>
@@ -29316,7 +29316,7 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F324" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G324" t="s">
         <v>50</v>
@@ -29675,7 +29675,7 @@
         <v>54</v>
       </c>
       <c r="G328" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H328">
         <v>0</v>
@@ -30209,7 +30209,7 @@
         <v>49</v>
       </c>
       <c r="G334" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H334">
         <v>1</v>
@@ -30295,10 +30295,10 @@
         <v>45312.54166666666</v>
       </c>
       <c r="F335" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G335" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H335">
         <v>0</v>
@@ -30829,7 +30829,7 @@
         <v>45318.52083333334</v>
       </c>
       <c r="F341" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G341" t="s">
         <v>48</v>
@@ -30906,7 +30906,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>6973239</v>
+        <v>6972816</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -30918,76 +30918,76 @@
         <v>45318.54166666666</v>
       </c>
       <c r="F342" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G342" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342">
         <v>1</v>
       </c>
       <c r="J342" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K342">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L342">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M342">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N342">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O342">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="P342">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="Q342">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R342">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S342">
+        <v>1.775</v>
+      </c>
+      <c r="T342">
+        <v>1.75</v>
+      </c>
+      <c r="U342">
         <v>1.975</v>
       </c>
-      <c r="T342">
-        <v>2</v>
-      </c>
-      <c r="U342">
-        <v>1.8</v>
-      </c>
       <c r="V342">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W342">
         <v>-1</v>
       </c>
       <c r="X342">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y342">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z342">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA342">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB342">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC342">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="343" spans="1:29">
@@ -30995,7 +30995,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>6972816</v>
+        <v>6973239</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -31007,76 +31007,76 @@
         <v>45318.54166666666</v>
       </c>
       <c r="F343" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G343" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I343">
         <v>1</v>
       </c>
       <c r="J343" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K343">
+        <v>3.6</v>
+      </c>
+      <c r="L343">
+        <v>3</v>
+      </c>
+      <c r="M343">
+        <v>2</v>
+      </c>
+      <c r="N343">
+        <v>3.5</v>
+      </c>
+      <c r="O343">
+        <v>3.1</v>
+      </c>
+      <c r="P343">
+        <v>2</v>
+      </c>
+      <c r="Q343">
+        <v>0.5</v>
+      </c>
+      <c r="R343">
+        <v>1.725</v>
+      </c>
+      <c r="S343">
+        <v>1.975</v>
+      </c>
+      <c r="T343">
+        <v>2</v>
+      </c>
+      <c r="U343">
+        <v>1.8</v>
+      </c>
+      <c r="V343">
+        <v>2</v>
+      </c>
+      <c r="W343">
+        <v>-1</v>
+      </c>
+      <c r="X343">
         <v>2.1</v>
       </c>
-      <c r="L343">
-        <v>2.9</v>
-      </c>
-      <c r="M343">
-        <v>3.4</v>
-      </c>
-      <c r="N343">
-        <v>2.375</v>
-      </c>
-      <c r="O343">
-        <v>2.625</v>
-      </c>
-      <c r="P343">
-        <v>3.2</v>
-      </c>
-      <c r="Q343">
-        <v>-0.25</v>
-      </c>
-      <c r="R343">
-        <v>2.025</v>
-      </c>
-      <c r="S343">
-        <v>1.775</v>
-      </c>
-      <c r="T343">
-        <v>1.75</v>
-      </c>
-      <c r="U343">
-        <v>1.975</v>
-      </c>
-      <c r="V343">
-        <v>1.825</v>
-      </c>
-      <c r="W343">
-        <v>-1</v>
-      </c>
-      <c r="X343">
-        <v>-1</v>
-      </c>
       <c r="Y343">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z343">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA343">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB343">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC343">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="344" spans="1:29">
@@ -31986,7 +31986,7 @@
         <v>45326.54166666666</v>
       </c>
       <c r="F354" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G354" t="s">
         <v>43</v>
@@ -32078,7 +32078,7 @@
         <v>48</v>
       </c>
       <c r="G355" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H355">
         <v>0</v>
@@ -32256,7 +32256,7 @@
         <v>37</v>
       </c>
       <c r="G357" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H357">
         <v>1</v>
@@ -32431,7 +32431,7 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F359" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G359" t="s">
         <v>37</v>
@@ -32520,7 +32520,7 @@
         <v>45332.59375</v>
       </c>
       <c r="F360" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G360" t="s">
         <v>44</v>
@@ -33057,7 +33057,7 @@
         <v>50</v>
       </c>
       <c r="G366" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H366">
         <v>3</v>
@@ -33179,10 +33179,10 @@
         <v>2</v>
       </c>
       <c r="U367">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V367">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W367">
         <v>0</v>
@@ -33232,22 +33232,22 @@
         <v>3.8</v>
       </c>
       <c r="N368">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O368">
         <v>3.1</v>
       </c>
       <c r="P368">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q368">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R368">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S368">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T368">
         <v>2</v>
@@ -33294,7 +33294,7 @@
         <v>30</v>
       </c>
       <c r="G369" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K369">
         <v>2.5</v>
@@ -33318,19 +33318,19 @@
         <v>-0.25</v>
       </c>
       <c r="R369">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S369">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T369">
         <v>1.75</v>
       </c>
       <c r="U369">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V369">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W369">
         <v>0</v>
@@ -33454,16 +33454,16 @@
         <v>1.615</v>
       </c>
       <c r="N371">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="O371">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P371">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="Q371">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R371">
         <v>1.825</v>
@@ -33475,10 +33475,10 @@
         <v>2.25</v>
       </c>
       <c r="U371">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V371">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W371">
         <v>0</v>
@@ -33513,7 +33513,7 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F372" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G372" t="s">
         <v>49</v>
@@ -33590,7 +33590,7 @@
         <v>44</v>
       </c>
       <c r="G373" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K373">
         <v>1.444</v>
@@ -33602,31 +33602,31 @@
         <v>7.5</v>
       </c>
       <c r="N373">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O373">
         <v>3.1</v>
       </c>
       <c r="P373">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q373">
         <v>-0.5</v>
       </c>
       <c r="R373">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S373">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T373">
         <v>2.25</v>
       </c>
       <c r="U373">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V373">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W373">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>6972831</v>
+        <v>6972829</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33661,46 +33661,46 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F374" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G374" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="K374">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="L374">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M374">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N374">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O374">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P374">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q374">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R374">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S374">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T374">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U374">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V374">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W374">
         <v>0</v>
@@ -33723,7 +33723,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>6972829</v>
+        <v>6972831</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33735,31 +33735,31 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F375" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G375" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K375">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="L375">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M375">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N375">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O375">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P375">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q375">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R375">
         <v>2</v>
@@ -33768,13 +33768,13 @@
         <v>1.8</v>
       </c>
       <c r="T375">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U375">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V375">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W375">
         <v>0</v>
